--- a/03_DB設計書/データモデル設計書.xlsx
+++ b/03_DB設計書/データモデル設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794C82E-F1D8-4F28-9102-6221E0AA87FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07371EDB-24AA-4C0C-AE32-9E6B71F4900E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2298,6 +2298,120 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2310,287 +2424,200 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2600,33 +2627,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4274,21 +4274,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="172" t="s">
+      <c r="U3" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="174"/>
-      <c r="W3" s="191">
+      <c r="V3" s="176"/>
+      <c r="W3" s="177">
         <v>45048</v>
       </c>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="167"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4400,20 +4400,20 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="176" t="s">
+      <c r="F7" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="178"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="162"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -4431,66 +4431,66 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="185" t="s">
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="187"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="171"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="175" t="s">
+      <c r="W8" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175" t="s">
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175" t="s">
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="159"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="190"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="174"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -4502,11 +4502,11 @@
       <c r="Z9" s="42"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="192" t="s">
+      <c r="AC9" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="193"/>
-      <c r="AE9" s="194"/>
+      <c r="AD9" s="181"/>
+      <c r="AE9" s="182"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4536,9 +4536,9 @@
       <c r="Y10" s="45"/>
       <c r="Z10" s="15"/>
       <c r="AB10" s="45"/>
-      <c r="AC10" s="195"/>
-      <c r="AD10" s="196"/>
-      <c r="AE10" s="197"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4568,9 +4568,9 @@
       <c r="Y11" s="45"/>
       <c r="Z11" s="15"/>
       <c r="AB11" s="45"/>
-      <c r="AC11" s="195"/>
-      <c r="AD11" s="196"/>
-      <c r="AE11" s="197"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="185"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4602,9 +4602,9 @@
       <c r="Z12" s="46"/>
       <c r="AA12" s="47"/>
       <c r="AB12" s="48"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="199"/>
-      <c r="AE12" s="200"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="187"/>
+      <c r="AE12" s="188"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4699,106 +4699,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="171"/>
-      <c r="T16" s="171"/>
-      <c r="U16" s="171"/>
-      <c r="V16" s="171"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="171"/>
-      <c r="Y16" s="171"/>
-      <c r="Z16" s="171"/>
-      <c r="AA16" s="171"/>
-      <c r="AB16" s="171"/>
-      <c r="AC16" s="171"/>
-      <c r="AD16" s="171"/>
-      <c r="AE16" s="171"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="189"/>
+      <c r="S16" s="189"/>
+      <c r="T16" s="189"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="189"/>
+      <c r="W16" s="189"/>
+      <c r="X16" s="189"/>
+      <c r="Y16" s="189"/>
+      <c r="Z16" s="189"/>
+      <c r="AA16" s="189"/>
+      <c r="AB16" s="189"/>
+      <c r="AC16" s="189"/>
+      <c r="AD16" s="189"/>
+      <c r="AE16" s="189"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="171"/>
-      <c r="S17" s="171"/>
-      <c r="T17" s="171"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="171"/>
-      <c r="W17" s="171"/>
-      <c r="X17" s="171"/>
-      <c r="Y17" s="171"/>
-      <c r="Z17" s="171"/>
-      <c r="AA17" s="171"/>
-      <c r="AB17" s="171"/>
-      <c r="AC17" s="171"/>
-      <c r="AD17" s="171"/>
-      <c r="AE17" s="171"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="189"/>
+      <c r="T17" s="189"/>
+      <c r="U17" s="189"/>
+      <c r="V17" s="189"/>
+      <c r="W17" s="189"/>
+      <c r="X17" s="189"/>
+      <c r="Y17" s="189"/>
+      <c r="Z17" s="189"/>
+      <c r="AA17" s="189"/>
+      <c r="AB17" s="189"/>
+      <c r="AC17" s="189"/>
+      <c r="AD17" s="189"/>
+      <c r="AE17" s="189"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="171"/>
-      <c r="T18" s="171"/>
-      <c r="U18" s="171"/>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="171"/>
-      <c r="Z18" s="171"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="171"/>
-      <c r="AD18" s="171"/>
-      <c r="AE18" s="171"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
+      <c r="S18" s="189"/>
+      <c r="T18" s="189"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
+      <c r="Y18" s="189"/>
+      <c r="Z18" s="189"/>
+      <c r="AA18" s="189"/>
+      <c r="AB18" s="189"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="189"/>
+      <c r="AE18" s="189"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4937,390 +4937,390 @@
     </row>
     <row r="23" spans="1:32" s="41" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="39"/>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="172" t="s">
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="172" t="s">
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="174"/>
-      <c r="AC23" s="172" t="s">
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="190"/>
+      <c r="W23" s="190"/>
+      <c r="X23" s="190"/>
+      <c r="Y23" s="190"/>
+      <c r="Z23" s="190"/>
+      <c r="AA23" s="190"/>
+      <c r="AB23" s="176"/>
+      <c r="AC23" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="174"/>
+      <c r="AD23" s="190"/>
+      <c r="AE23" s="176"/>
       <c r="AF23" s="39"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="165">
+      <c r="B24" s="191">
         <v>1</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168">
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="192">
         <v>45048</v>
       </c>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="166"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="166"/>
-      <c r="V24" s="166"/>
-      <c r="W24" s="166"/>
-      <c r="X24" s="166"/>
-      <c r="Y24" s="166"/>
-      <c r="Z24" s="166"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="167"/>
-      <c r="AC24" s="165" t="s">
+      <c r="G24" s="193"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="178"/>
+      <c r="P24" s="178"/>
+      <c r="Q24" s="178"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="178"/>
+      <c r="T24" s="178"/>
+      <c r="U24" s="178"/>
+      <c r="V24" s="178"/>
+      <c r="W24" s="178"/>
+      <c r="X24" s="178"/>
+      <c r="Y24" s="178"/>
+      <c r="Z24" s="178"/>
+      <c r="AA24" s="178"/>
+      <c r="AB24" s="179"/>
+      <c r="AC24" s="191" t="s">
         <v>54</v>
       </c>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="167"/>
+      <c r="AD24" s="178"/>
+      <c r="AE24" s="179"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="166"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="166"/>
-      <c r="T25" s="166"/>
-      <c r="U25" s="166"/>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="166"/>
-      <c r="Z25" s="166"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="167"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="166"/>
-      <c r="AE25" s="167"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="178"/>
+      <c r="W25" s="178"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="178"/>
+      <c r="Z25" s="178"/>
+      <c r="AA25" s="178"/>
+      <c r="AB25" s="179"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="178"/>
+      <c r="AE25" s="179"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="165"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="166"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="166"/>
-      <c r="T26" s="166"/>
-      <c r="U26" s="166"/>
-      <c r="V26" s="166"/>
-      <c r="W26" s="166"/>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="167"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="167"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
+      <c r="AB26" s="179"/>
+      <c r="AC26" s="191"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="179"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="166"/>
-      <c r="U27" s="166"/>
-      <c r="V27" s="166"/>
-      <c r="W27" s="166"/>
-      <c r="X27" s="166"/>
-      <c r="Y27" s="166"/>
-      <c r="Z27" s="166"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="167"/>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="166"/>
-      <c r="AE27" s="167"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="178"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="179"/>
+      <c r="AC27" s="191"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="179"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="166"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="166"/>
-      <c r="W28" s="166"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="167"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="178"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="178"/>
+      <c r="O28" s="178"/>
+      <c r="P28" s="178"/>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="178"/>
+      <c r="U28" s="178"/>
+      <c r="V28" s="178"/>
+      <c r="W28" s="178"/>
+      <c r="X28" s="178"/>
+      <c r="Y28" s="178"/>
+      <c r="Z28" s="178"/>
+      <c r="AA28" s="178"/>
+      <c r="AB28" s="179"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="178"/>
+      <c r="AE28" s="179"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="166"/>
-      <c r="U29" s="166"/>
-      <c r="V29" s="166"/>
-      <c r="W29" s="166"/>
-      <c r="X29" s="166"/>
-      <c r="Y29" s="166"/>
-      <c r="Z29" s="166"/>
-      <c r="AA29" s="166"/>
-      <c r="AB29" s="167"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="167"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="178"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="178"/>
+      <c r="O29" s="178"/>
+      <c r="P29" s="178"/>
+      <c r="Q29" s="178"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="178"/>
+      <c r="U29" s="178"/>
+      <c r="V29" s="178"/>
+      <c r="W29" s="178"/>
+      <c r="X29" s="178"/>
+      <c r="Y29" s="178"/>
+      <c r="Z29" s="178"/>
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="179"/>
+      <c r="AC29" s="191"/>
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="179"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="166"/>
-      <c r="V30" s="166"/>
-      <c r="W30" s="166"/>
-      <c r="X30" s="166"/>
-      <c r="Y30" s="166"/>
-      <c r="Z30" s="166"/>
-      <c r="AA30" s="166"/>
-      <c r="AB30" s="167"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="166"/>
-      <c r="AE30" s="167"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="178"/>
+      <c r="O30" s="178"/>
+      <c r="P30" s="178"/>
+      <c r="Q30" s="178"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="178"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
+      <c r="Z30" s="178"/>
+      <c r="AA30" s="178"/>
+      <c r="AB30" s="179"/>
+      <c r="AC30" s="191"/>
+      <c r="AD30" s="178"/>
+      <c r="AE30" s="179"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="166"/>
-      <c r="V31" s="166"/>
-      <c r="W31" s="166"/>
-      <c r="X31" s="166"/>
-      <c r="Y31" s="166"/>
-      <c r="Z31" s="166"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="167"/>
-      <c r="AC31" s="165"/>
-      <c r="AD31" s="166"/>
-      <c r="AE31" s="167"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="178"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="178"/>
+      <c r="O31" s="178"/>
+      <c r="P31" s="178"/>
+      <c r="Q31" s="178"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="178"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="178"/>
+      <c r="V31" s="178"/>
+      <c r="W31" s="178"/>
+      <c r="X31" s="178"/>
+      <c r="Y31" s="178"/>
+      <c r="Z31" s="178"/>
+      <c r="AA31" s="178"/>
+      <c r="AB31" s="179"/>
+      <c r="AC31" s="191"/>
+      <c r="AD31" s="178"/>
+      <c r="AE31" s="179"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="166"/>
-      <c r="W32" s="166"/>
-      <c r="X32" s="166"/>
-      <c r="Y32" s="166"/>
-      <c r="Z32" s="166"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="167"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="166"/>
-      <c r="AE32" s="167"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="178"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="178"/>
+      <c r="O32" s="178"/>
+      <c r="P32" s="178"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="178"/>
+      <c r="U32" s="178"/>
+      <c r="V32" s="178"/>
+      <c r="W32" s="178"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="178"/>
+      <c r="Z32" s="178"/>
+      <c r="AA32" s="178"/>
+      <c r="AB32" s="179"/>
+      <c r="AC32" s="191"/>
+      <c r="AD32" s="178"/>
+      <c r="AE32" s="179"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="166"/>
-      <c r="U33" s="166"/>
-      <c r="V33" s="166"/>
-      <c r="W33" s="166"/>
-      <c r="X33" s="166"/>
-      <c r="Y33" s="166"/>
-      <c r="Z33" s="166"/>
-      <c r="AA33" s="166"/>
-      <c r="AB33" s="167"/>
-      <c r="AC33" s="165"/>
-      <c r="AD33" s="166"/>
-      <c r="AE33" s="167"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="178"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="178"/>
+      <c r="O33" s="178"/>
+      <c r="P33" s="178"/>
+      <c r="Q33" s="178"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="178"/>
+      <c r="T33" s="178"/>
+      <c r="U33" s="178"/>
+      <c r="V33" s="178"/>
+      <c r="W33" s="178"/>
+      <c r="X33" s="178"/>
+      <c r="Y33" s="178"/>
+      <c r="Z33" s="178"/>
+      <c r="AA33" s="178"/>
+      <c r="AB33" s="179"/>
+      <c r="AC33" s="191"/>
+      <c r="AD33" s="178"/>
+      <c r="AE33" s="179"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5358,6 +5358,51 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5367,51 +5412,6 @@
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5451,10 +5451,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="196"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5467,10 +5467,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="164"/>
+      <c r="B2" s="196"/>
       <c r="C2" s="31" t="s">
         <v>5</v>
       </c>
@@ -5483,10 +5483,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="164"/>
+      <c r="B3" s="196"/>
       <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
@@ -5497,10 +5497,10 @@
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="164"/>
+      <c r="B4" s="196"/>
       <c r="C4" s="31" t="s">
         <v>11</v>
       </c>
@@ -5513,10 +5513,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="164"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
@@ -5559,10 +5559,10 @@
       <c r="D8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="E8" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="162"/>
+      <c r="F8" s="200"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1">
       <c r="A9" s="8">
@@ -5577,10 +5577,10 @@
       <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="159" t="s">
+      <c r="E9" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="160"/>
+      <c r="F9" s="198"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="8">
@@ -5595,10 +5595,10 @@
       <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="160"/>
+      <c r="F10" s="198"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="8">
@@ -5613,10 +5613,10 @@
       <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="E11" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="160"/>
+      <c r="F11" s="198"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="8">
@@ -5631,10 +5631,10 @@
       <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="159" t="s">
+      <c r="E12" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="160"/>
+      <c r="F12" s="198"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="8">
@@ -5643,8 +5643,8 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="198"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="8">
@@ -5653,8 +5653,8 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="198"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8">
@@ -5663,16 +5663,16 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="160"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="198"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="160"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="198"/>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -5923,11 +5923,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -5937,6 +5932,11 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6020,12 +6020,12 @@
         <v>7</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="205"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="237"/>
       <c r="G3" s="51" t="s">
         <v>9</v>
       </c>
@@ -6046,42 +6046,42 @@
         <v>57</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="230" t="s">
+      <c r="C5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="232"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="221"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="230" t="s">
+      <c r="C6" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="232"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="221"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="230" t="s">
+      <c r="C7" s="219" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="232"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="221"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -6102,10 +6102,10 @@
       <c r="B9" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="207"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="57" t="s">
         <v>64</v>
       </c>
@@ -6126,10 +6126,10 @@
       <c r="B10" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="208" t="s">
+      <c r="C10" s="239" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="209"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="61" t="s">
         <v>70</v>
       </c>
@@ -6148,10 +6148,10 @@
       <c r="B11" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="222" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="223"/>
       <c r="E11" s="66" t="s">
         <v>75</v>
       </c>
@@ -6168,10 +6168,10 @@
       <c r="B12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="202"/>
+      <c r="D12" s="223"/>
       <c r="E12" s="66" t="s">
         <v>70</v>
       </c>
@@ -6188,10 +6188,10 @@
       <c r="B13" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="201" t="s">
+      <c r="C13" s="222" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="202"/>
+      <c r="D13" s="223"/>
       <c r="E13" s="66" t="s">
         <v>80</v>
       </c>
@@ -6208,10 +6208,10 @@
       <c r="B14" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="201" t="s">
+      <c r="C14" s="222" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="202"/>
+      <c r="D14" s="223"/>
       <c r="E14" s="66" t="s">
         <v>70</v>
       </c>
@@ -6224,8 +6224,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="223"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -6234,8 +6234,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="223"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -6244,8 +6244,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -6254,8 +6254,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="223"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -6264,8 +6264,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="223"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -6274,8 +6274,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="223"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -6284,8 +6284,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="223"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -6294,8 +6294,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="223"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -6304,8 +6304,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="223"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -6314,8 +6314,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="223"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -6324,8 +6324,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="223"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -6334,8 +6334,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="223"/>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -6344,8 +6344,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="223"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -6354,8 +6354,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="69"/>
       <c r="B28" s="70"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="223"/>
       <c r="E28" s="71"/>
       <c r="F28" s="71"/>
       <c r="G28" s="72"/>
@@ -6364,8 +6364,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="225"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="209"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -6397,10 +6397,10 @@
       <c r="A32" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="211" t="s">
+      <c r="B32" s="212" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="227"/>
+      <c r="C32" s="214"/>
       <c r="D32" s="83" t="s">
         <v>86</v>
       </c>
@@ -6415,51 +6415,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="59"/>
-      <c r="B33" s="233"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="214"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="203"/>
       <c r="G33" s="62"/>
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="64"/>
-      <c r="B34" s="235"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="216"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="206"/>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="64"/>
-      <c r="B35" s="235"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="216"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="206"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="64"/>
-      <c r="B36" s="235"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="215"/>
-      <c r="E36" s="240"/>
-      <c r="F36" s="216"/>
+      <c r="B36" s="217"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="206"/>
       <c r="G36" s="67"/>
       <c r="H36" s="68"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="74"/>
-      <c r="B37" s="237"/>
-      <c r="C37" s="238"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="77"/>
       <c r="H37" s="78"/>
     </row>
@@ -6492,15 +6492,15 @@
       <c r="B40" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="211" t="s">
+      <c r="C40" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="226"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="211" t="s">
+      <c r="D40" s="213"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="212"/>
+      <c r="G40" s="234"/>
       <c r="H40" s="87" t="s">
         <v>91</v>
       </c>
@@ -6508,51 +6508,51 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="88"/>
       <c r="B41" s="89"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="239"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="214"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="90"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="240"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="216"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="206"/>
       <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
-      <c r="C43" s="215"/>
-      <c r="D43" s="240"/>
-      <c r="E43" s="216"/>
-      <c r="F43" s="215"/>
-      <c r="G43" s="216"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="206"/>
       <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="215"/>
-      <c r="D44" s="240"/>
-      <c r="E44" s="216"/>
-      <c r="F44" s="215"/>
-      <c r="G44" s="216"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="204"/>
+      <c r="G44" s="206"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="94"/>
       <c r="B45" s="95"/>
-      <c r="C45" s="223"/>
-      <c r="D45" s="224"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="217"/>
-      <c r="G45" s="218"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="225"/>
       <c r="H45" s="96"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -6584,15 +6584,15 @@
       <c r="B48" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="211" t="s">
+      <c r="C48" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="226"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="206" t="s">
+      <c r="D48" s="213"/>
+      <c r="E48" s="214"/>
+      <c r="F48" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="G48" s="210"/>
+      <c r="G48" s="233"/>
       <c r="H48" s="58" t="s">
         <v>94</v>
       </c>
@@ -6604,15 +6604,15 @@
       <c r="B49" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="219" t="s">
+      <c r="C49" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="228"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="219" t="s">
+      <c r="D49" s="230"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="220"/>
+      <c r="G49" s="227"/>
       <c r="H49" s="144" t="s">
         <v>98</v>
       </c>
@@ -6620,61 +6620,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="145"/>
       <c r="B50" s="146"/>
-      <c r="C50" s="221"/>
-      <c r="D50" s="229"/>
-      <c r="E50" s="222"/>
-      <c r="F50" s="221"/>
-      <c r="G50" s="222"/>
+      <c r="C50" s="228"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="228"/>
+      <c r="G50" s="229"/>
       <c r="H50" s="147"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="145"/>
       <c r="B51" s="146"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="229"/>
-      <c r="E51" s="222"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="222"/>
+      <c r="C51" s="228"/>
+      <c r="D51" s="231"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="228"/>
+      <c r="G51" s="229"/>
       <c r="H51" s="147"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="145"/>
       <c r="B52" s="146"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="229"/>
-      <c r="E52" s="222"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="222"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="228"/>
+      <c r="G52" s="229"/>
       <c r="H52" s="147"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="94"/>
       <c r="B53" s="95"/>
-      <c r="C53" s="223"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
-      <c r="F53" s="217"/>
-      <c r="G53" s="218"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="224"/>
+      <c r="G53" s="225"/>
       <c r="H53" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -6691,34 +6703,22 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6801,12 +6801,12 @@
         <v>7</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="205"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="237"/>
       <c r="G3" s="51" t="s">
         <v>9</v>
       </c>
@@ -6827,28 +6827,28 @@
         <v>57</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="230" t="s">
+      <c r="C5" s="219" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="232"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="221"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="230" t="s">
+      <c r="C6" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="232"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="221"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -6883,10 +6883,10 @@
       <c r="B9" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="207"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="57" t="s">
         <v>64</v>
       </c>
@@ -6907,10 +6907,10 @@
       <c r="B10" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="208" t="s">
+      <c r="C10" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="209"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="61" t="s">
         <v>108</v>
       </c>
@@ -6929,10 +6929,10 @@
       <c r="B11" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="223"/>
       <c r="E11" s="66" t="s">
         <v>112</v>
       </c>
@@ -6951,10 +6951,10 @@
       <c r="B12" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="202"/>
+      <c r="D12" s="223"/>
       <c r="E12" s="66" t="s">
         <v>112</v>
       </c>
@@ -6973,10 +6973,10 @@
       <c r="B13" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="201" t="s">
+      <c r="C13" s="222" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="202"/>
+      <c r="D13" s="223"/>
       <c r="E13" s="71" t="s">
         <v>117</v>
       </c>
@@ -6989,8 +6989,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="202"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="223"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6999,8 +6999,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="223"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -7009,8 +7009,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="223"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7019,8 +7019,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7029,8 +7029,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="223"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7039,8 +7039,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="223"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7049,8 +7049,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="223"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7059,8 +7059,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="223"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7069,8 +7069,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="223"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7079,8 +7079,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="223"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7089,8 +7089,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="223"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7099,8 +7099,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="223"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7109,8 +7109,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="223"/>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -7119,8 +7119,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="223"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -7129,8 +7129,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="69"/>
       <c r="B28" s="70"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="223"/>
       <c r="E28" s="71"/>
       <c r="F28" s="71"/>
       <c r="G28" s="72"/>
@@ -7139,8 +7139,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="225"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="209"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -7172,10 +7172,10 @@
       <c r="A32" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="211" t="s">
+      <c r="B32" s="212" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="227"/>
+      <c r="C32" s="214"/>
       <c r="D32" s="83" t="s">
         <v>86</v>
       </c>
@@ -7190,51 +7190,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="59"/>
-      <c r="B33" s="233"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="214"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="203"/>
       <c r="G33" s="62"/>
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="64"/>
-      <c r="B34" s="235"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="216"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="206"/>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="64"/>
-      <c r="B35" s="235"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="216"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="206"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="64"/>
-      <c r="B36" s="235"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="215"/>
-      <c r="E36" s="240"/>
-      <c r="F36" s="216"/>
+      <c r="B36" s="217"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="206"/>
       <c r="G36" s="67"/>
       <c r="H36" s="68"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="74"/>
-      <c r="B37" s="237"/>
-      <c r="C37" s="238"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="77"/>
       <c r="H37" s="78"/>
     </row>
@@ -7267,15 +7267,15 @@
       <c r="B40" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="211" t="s">
+      <c r="C40" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="226"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="211" t="s">
+      <c r="D40" s="213"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="212"/>
+      <c r="G40" s="234"/>
       <c r="H40" s="87" t="s">
         <v>91</v>
       </c>
@@ -7287,15 +7287,15 @@
       <c r="B41" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="228"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="219" t="s">
+      <c r="D41" s="230"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>119</v>
       </c>
-      <c r="G41" s="220"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="144" t="s">
         <v>118</v>
       </c>
@@ -7307,15 +7307,15 @@
       <c r="B42" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="221" t="s">
+      <c r="C42" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="229"/>
-      <c r="E42" s="222"/>
-      <c r="F42" s="221" t="s">
+      <c r="D42" s="231"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="222"/>
+      <c r="G42" s="229"/>
       <c r="H42" s="147" t="s">
         <v>120</v>
       </c>
@@ -7327,15 +7327,15 @@
       <c r="B43" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="221" t="s">
+      <c r="C43" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="229"/>
-      <c r="E43" s="222"/>
-      <c r="F43" s="221" t="s">
+      <c r="D43" s="231"/>
+      <c r="E43" s="229"/>
+      <c r="F43" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="222"/>
+      <c r="G43" s="229"/>
       <c r="H43" s="147" t="s">
         <v>122</v>
       </c>
@@ -7343,21 +7343,21 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="145"/>
       <c r="B44" s="146"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="222"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="222"/>
+      <c r="C44" s="228"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="228"/>
+      <c r="G44" s="229"/>
       <c r="H44" s="147"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="94"/>
       <c r="B45" s="95"/>
-      <c r="C45" s="223"/>
-      <c r="D45" s="224"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="217"/>
-      <c r="G45" s="218"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="225"/>
       <c r="H45" s="96"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -7389,15 +7389,15 @@
       <c r="B48" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="211" t="s">
+      <c r="C48" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="226"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="206" t="s">
+      <c r="D48" s="213"/>
+      <c r="E48" s="214"/>
+      <c r="F48" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="G48" s="210"/>
+      <c r="G48" s="233"/>
       <c r="H48" s="58" t="s">
         <v>94</v>
       </c>
@@ -7409,15 +7409,15 @@
       <c r="B49" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="219" t="s">
+      <c r="C49" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="228"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="219" t="s">
+      <c r="D49" s="230"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="226" t="s">
         <v>124</v>
       </c>
-      <c r="G49" s="220"/>
+      <c r="G49" s="227"/>
       <c r="H49" s="144" t="s">
         <v>118</v>
       </c>
@@ -7429,15 +7429,15 @@
       <c r="B50" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="221" t="s">
+      <c r="C50" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="229"/>
-      <c r="E50" s="222"/>
-      <c r="F50" s="221" t="s">
+      <c r="D50" s="231"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="222"/>
+      <c r="G50" s="229"/>
       <c r="H50" s="147" t="s">
         <v>118</v>
       </c>
@@ -7449,15 +7449,15 @@
       <c r="B51" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="221" t="s">
+      <c r="C51" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="229"/>
-      <c r="E51" s="222"/>
-      <c r="F51" s="221" t="s">
+      <c r="D51" s="231"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="222"/>
+      <c r="G51" s="229"/>
       <c r="H51" s="147" t="s">
         <v>122</v>
       </c>
@@ -7465,21 +7465,785 @@
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="145"/>
       <c r="B52" s="146"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="229"/>
-      <c r="E52" s="222"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="222"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="228"/>
+      <c r="G52" s="229"/>
       <c r="H52" s="147"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="94"/>
       <c r="B53" s="95"/>
-      <c r="C53" s="223"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
-      <c r="F53" s="217"/>
-      <c r="G53" s="218"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="224"/>
+      <c r="G53" s="225"/>
+      <c r="H53" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56647902-0127-459E-8135-184EDDB46DE2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="111"/>
+      <c r="E1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="130">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="111"/>
+      <c r="G2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="112"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="244" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="112"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="111"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="247" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="249"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="247" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="249"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="113"/>
+      <c r="C7" s="247" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="249"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="251"/>
+      <c r="E9" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="59">
+        <v>1</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="222" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="223"/>
+      <c r="E10" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="119" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="59">
+        <v>2</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="222" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="223"/>
+      <c r="E11" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="71"/>
+      <c r="H11" s="119" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="59">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="222" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="223"/>
+      <c r="E12" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="119"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="59"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="119"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="119"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="119"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="119"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="119"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="119"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="119"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="119"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="119"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="119"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="119"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="119"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="119"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="223"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="119"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="119"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="119"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="120"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="114"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="252" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="253"/>
+      <c r="D32" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="125"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="127" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="59"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="108"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="64"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="118"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="64"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="118"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="64"/>
+      <c r="B36" s="217"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="118"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="74"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="120"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="114"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="252" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="254"/>
+      <c r="E40" s="253"/>
+      <c r="F40" s="252" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="255"/>
+      <c r="H40" s="127" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="143">
+        <v>1</v>
+      </c>
+      <c r="B41" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="226" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="230"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="227"/>
+      <c r="H41" s="144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="145"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="231"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="229"/>
+      <c r="H42" s="147"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="145"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="231"/>
+      <c r="E43" s="229"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="229"/>
+      <c r="H43" s="147"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="145"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="228"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="228"/>
+      <c r="G44" s="229"/>
+      <c r="H44" s="147"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="94"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="225"/>
+      <c r="H45" s="96"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="114"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="252" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="254"/>
+      <c r="E48" s="253"/>
+      <c r="F48" s="250" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="256"/>
+      <c r="H48" s="117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="143">
+        <v>1</v>
+      </c>
+      <c r="B49" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="226" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="230"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="226" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="227"/>
+      <c r="H49" s="144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="145"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="228"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="228"/>
+      <c r="G50" s="229"/>
+      <c r="H50" s="147"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="145"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="228"/>
+      <c r="D51" s="231"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="228"/>
+      <c r="G51" s="229"/>
+      <c r="H51" s="147"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="145"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="228"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="147"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="94"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="224"/>
+      <c r="G53" s="225"/>
       <c r="H53" s="96"/>
     </row>
   </sheetData>
@@ -7551,8 +8315,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56647902-0127-459E-8135-184EDDB46DE2}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C688EDCB-121F-448D-B07A-944E0F7080E7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7617,12 +8381,12 @@
         <v>7</v>
       </c>
       <c r="B3" s="109"/>
-      <c r="C3" s="250" t="s">
+      <c r="C3" s="244" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="252"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="246"/>
       <c r="G3" s="51" t="s">
         <v>9</v>
       </c>
@@ -7643,42 +8407,42 @@
         <v>57</v>
       </c>
       <c r="B5" s="113"/>
-      <c r="C5" s="253" t="s">
+      <c r="C5" s="247" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="255"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="249"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="109" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="113"/>
-      <c r="C6" s="253" t="s">
+      <c r="C6" s="247" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="255"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="249"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="113"/>
-      <c r="C7" s="253" t="s">
+      <c r="C7" s="247" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="255"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="249"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="114" t="s">
@@ -7699,10 +8463,10 @@
       <c r="B9" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="247" t="s">
+      <c r="C9" s="250" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="256"/>
+      <c r="D9" s="251"/>
       <c r="E9" s="116" t="s">
         <v>64</v>
       </c>
@@ -7723,10 +8487,10 @@
       <c r="B10" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="202"/>
+      <c r="D10" s="223"/>
       <c r="E10" s="71" t="s">
         <v>131</v>
       </c>
@@ -7745,10 +8509,10 @@
       <c r="B11" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="222" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="202"/>
+      <c r="D11" s="223"/>
       <c r="E11" s="71" t="s">
         <v>131</v>
       </c>
@@ -7767,10 +8531,10 @@
       <c r="B12" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="222" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="202"/>
+      <c r="D12" s="223"/>
       <c r="E12" s="71" t="s">
         <v>136</v>
       </c>
@@ -7783,8 +8547,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="59"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="223"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
@@ -7793,8 +8557,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="59"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="202"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="223"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="71"/>
@@ -7803,8 +8567,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="59"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="223"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -7813,8 +8577,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="223"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
@@ -7823,8 +8587,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
@@ -7833,8 +8597,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="223"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="71"/>
@@ -7843,8 +8607,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="223"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="71"/>
@@ -7853,8 +8617,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="223"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="71"/>
@@ -7863,8 +8627,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="223"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="71"/>
@@ -7873,8 +8637,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="223"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
@@ -7883,8 +8647,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="223"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -7893,8 +8657,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="223"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="71"/>
@@ -7903,8 +8667,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="223"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="71"/>
@@ -7913,8 +8677,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="223"/>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
@@ -7923,8 +8687,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="223"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="71"/>
@@ -7933,8 +8697,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="69"/>
       <c r="B28" s="70"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="223"/>
       <c r="E28" s="71"/>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
@@ -7943,8 +8707,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="74"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="225"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="209"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="76"/>
@@ -7976,10 +8740,10 @@
       <c r="A32" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="244" t="s">
+      <c r="B32" s="252" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="246"/>
+      <c r="C32" s="253"/>
       <c r="D32" s="123" t="s">
         <v>86</v>
       </c>
@@ -7994,51 +8758,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="59"/>
-      <c r="B33" s="233"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="214"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="203"/>
       <c r="G33" s="61"/>
       <c r="H33" s="108"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="64"/>
-      <c r="B34" s="235"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="216"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="206"/>
       <c r="G34" s="66"/>
       <c r="H34" s="118"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="64"/>
-      <c r="B35" s="235"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="216"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="206"/>
       <c r="G35" s="66"/>
       <c r="H35" s="118"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="64"/>
-      <c r="B36" s="235"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="215"/>
-      <c r="E36" s="240"/>
-      <c r="F36" s="216"/>
+      <c r="B36" s="217"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="206"/>
       <c r="G36" s="66"/>
       <c r="H36" s="118"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="74"/>
-      <c r="B37" s="237"/>
-      <c r="C37" s="238"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="120"/>
     </row>
@@ -8071,15 +8835,15 @@
       <c r="B40" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="244" t="s">
+      <c r="C40" s="252" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="245"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="244" t="s">
+      <c r="D40" s="254"/>
+      <c r="E40" s="253"/>
+      <c r="F40" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="249"/>
+      <c r="G40" s="255"/>
       <c r="H40" s="127" t="s">
         <v>91</v>
       </c>
@@ -8091,15 +8855,15 @@
       <c r="B41" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="226" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="228"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="219" t="s">
+      <c r="D41" s="230"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="220"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="144" t="s">
         <v>140</v>
       </c>
@@ -8107,41 +8871,41 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="145"/>
       <c r="B42" s="146"/>
-      <c r="C42" s="221"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="222"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="222"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="231"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="229"/>
       <c r="H42" s="147"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="145"/>
       <c r="B43" s="146"/>
-      <c r="C43" s="221"/>
-      <c r="D43" s="229"/>
-      <c r="E43" s="222"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="222"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="231"/>
+      <c r="E43" s="229"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="229"/>
       <c r="H43" s="147"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="145"/>
       <c r="B44" s="146"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="222"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="222"/>
+      <c r="C44" s="228"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="228"/>
+      <c r="G44" s="229"/>
       <c r="H44" s="147"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="94"/>
       <c r="B45" s="95"/>
-      <c r="C45" s="223"/>
-      <c r="D45" s="224"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="217"/>
-      <c r="G45" s="218"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="225"/>
       <c r="H45" s="96"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -8173,15 +8937,15 @@
       <c r="B48" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="244" t="s">
+      <c r="C48" s="252" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="245"/>
-      <c r="E48" s="246"/>
-      <c r="F48" s="247" t="s">
+      <c r="D48" s="254"/>
+      <c r="E48" s="253"/>
+      <c r="F48" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="G48" s="248"/>
+      <c r="G48" s="256"/>
       <c r="H48" s="117" t="s">
         <v>94</v>
       </c>
@@ -8193,15 +8957,15 @@
       <c r="B49" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="219" t="s">
+      <c r="C49" s="226" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="228"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="219" t="s">
+      <c r="D49" s="230"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="226" t="s">
         <v>142</v>
       </c>
-      <c r="G49" s="220"/>
+      <c r="G49" s="227"/>
       <c r="H49" s="144" t="s">
         <v>143</v>
       </c>
@@ -8209,41 +8973,41 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="145"/>
       <c r="B50" s="158"/>
-      <c r="C50" s="221"/>
-      <c r="D50" s="229"/>
-      <c r="E50" s="222"/>
-      <c r="F50" s="221"/>
-      <c r="G50" s="222"/>
+      <c r="C50" s="228"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="228"/>
+      <c r="G50" s="229"/>
       <c r="H50" s="147"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="145"/>
       <c r="B51" s="146"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="229"/>
-      <c r="E51" s="222"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="222"/>
+      <c r="C51" s="228"/>
+      <c r="D51" s="231"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="228"/>
+      <c r="G51" s="229"/>
       <c r="H51" s="147"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="145"/>
       <c r="B52" s="146"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="229"/>
-      <c r="E52" s="222"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="222"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="228"/>
+      <c r="G52" s="229"/>
       <c r="H52" s="147"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="94"/>
       <c r="B53" s="95"/>
-      <c r="C53" s="223"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
-      <c r="F53" s="217"/>
-      <c r="G53" s="218"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="224"/>
+      <c r="G53" s="225"/>
       <c r="H53" s="96"/>
     </row>
   </sheetData>
@@ -8315,770 +9079,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C688EDCB-121F-448D-B07A-944E0F7080E7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="130">
-        <v>44851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="112"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="250" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="112"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="111"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="253" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="255"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="253" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="255"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="253" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="255"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="247" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="256"/>
-      <c r="E9" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="117" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="59">
-        <v>1</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="201" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="202"/>
-      <c r="E10" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="119" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="59">
-        <v>2</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="201" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="202"/>
-      <c r="E11" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="119" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="59">
-        <v>3</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="201" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="202"/>
-      <c r="E12" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="119"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="119"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="119"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="119"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="119"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="119"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="119"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="119"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="119"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="119"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="119"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="119"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="119"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="119"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="119"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="119"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="119"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="120"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A32" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="244" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="246"/>
-      <c r="D32" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="125"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="127" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="233"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="108"/>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="235"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="118"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="235"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="118"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="235"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="215"/>
-      <c r="E36" s="240"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="118"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="74"/>
-      <c r="B37" s="237"/>
-      <c r="C37" s="238"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="120"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="244" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="245"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="244" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="249"/>
-      <c r="H40" s="127" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A41" s="143">
-        <v>1</v>
-      </c>
-      <c r="B41" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="219" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="228"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="219" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="220"/>
-      <c r="H41" s="144" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="145"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="221"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="222"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="222"/>
-      <c r="H42" s="147"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="145"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="221"/>
-      <c r="D43" s="229"/>
-      <c r="E43" s="222"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="222"/>
-      <c r="H43" s="147"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="145"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="222"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="222"/>
-      <c r="H44" s="147"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="223"/>
-      <c r="D45" s="224"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="217"/>
-      <c r="G45" s="218"/>
-      <c r="H45" s="96"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="114"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="244" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="245"/>
-      <c r="E48" s="246"/>
-      <c r="F48" s="247" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" s="248"/>
-      <c r="H48" s="117" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A49" s="143">
-        <v>1</v>
-      </c>
-      <c r="B49" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="219" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="228"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="219" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="220"/>
-      <c r="H49" s="144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="145"/>
-      <c r="B50" s="158"/>
-      <c r="C50" s="221"/>
-      <c r="D50" s="229"/>
-      <c r="E50" s="222"/>
-      <c r="F50" s="221"/>
-      <c r="G50" s="222"/>
-      <c r="H50" s="147"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="145"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="229"/>
-      <c r="E51" s="222"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="222"/>
-      <c r="H51" s="147"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="145"/>
-      <c r="B52" s="146"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="229"/>
-      <c r="E52" s="222"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="222"/>
-      <c r="H52" s="147"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="94"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="223"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
-      <c r="F53" s="217"/>
-      <c r="G53" s="218"/>
-      <c r="H53" s="96"/>
-    </row>
-  </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C28AD93-ECE2-4232-B849-C9473F3E1AC2}">
   <sheetPr codeName="Sheet7">
@@ -9136,10 +9136,10 @@
       <c r="K2" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="263">
+      <c r="L2" s="260">
         <v>45035</v>
       </c>
-      <c r="M2" s="264"/>
+      <c r="M2" s="261"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="138" t="s">
@@ -9161,8 +9161,8 @@
       <c r="K3" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="263"/>
-      <c r="M3" s="264"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="261"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="134" t="s">
@@ -9182,10 +9182,10 @@
       <c r="K4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="265" t="s">
+      <c r="L4" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="264"/>
+      <c r="M4" s="261"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="19"/>
@@ -9246,13 +9246,13 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="F9" s="99"/>
-      <c r="G9" s="266" t="s">
+      <c r="G9" s="263" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="267"/>
-      <c r="K9" s="268"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="264"/>
+      <c r="K9" s="265"/>
       <c r="L9" s="154"/>
       <c r="M9" s="155"/>
     </row>
@@ -9283,15 +9283,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="98"/>
-      <c r="B11" s="257" t="s">
+      <c r="B11" s="266" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="260" t="s">
+      <c r="C11" s="257" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="262"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="259"/>
       <c r="G11" s="102" t="s">
         <v>155</v>
       </c>
@@ -9304,13 +9304,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="98"/>
-      <c r="B12" s="258"/>
-      <c r="C12" s="260" t="s">
+      <c r="B12" s="267"/>
+      <c r="C12" s="257" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="261"/>
-      <c r="E12" s="261"/>
-      <c r="F12" s="262"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="258"/>
+      <c r="F12" s="259"/>
       <c r="G12" s="102"/>
       <c r="H12" s="102" t="s">
         <v>155</v>
@@ -9323,13 +9323,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="98"/>
-      <c r="B13" s="258"/>
-      <c r="C13" s="260" t="s">
+      <c r="B13" s="267"/>
+      <c r="C13" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="261"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="262"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="259"/>
       <c r="G13" s="102"/>
       <c r="H13" s="102" t="s">
         <v>155</v>
@@ -9348,13 +9348,13 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="98"/>
-      <c r="B14" s="258"/>
-      <c r="C14" s="260" t="s">
+      <c r="B14" s="267"/>
+      <c r="C14" s="257" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="262"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="258"/>
+      <c r="F14" s="259"/>
       <c r="G14" s="102"/>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -9369,13 +9369,13 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="98"/>
-      <c r="B15" s="258"/>
-      <c r="C15" s="260" t="s">
+      <c r="B15" s="267"/>
+      <c r="C15" s="257" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="261"/>
-      <c r="E15" s="261"/>
-      <c r="F15" s="262"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="259"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102"/>
       <c r="I15" s="102" t="s">
@@ -9392,11 +9392,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="98"/>
-      <c r="B16" s="258"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="262"/>
+      <c r="B16" s="267"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="258"/>
+      <c r="E16" s="258"/>
+      <c r="F16" s="259"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
@@ -9407,11 +9407,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="98"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="262"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="258"/>
+      <c r="F17" s="259"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
@@ -9422,11 +9422,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="98"/>
-      <c r="B18" s="258"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="262"/>
+      <c r="B18" s="267"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="259"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
       <c r="I18" s="102"/>
@@ -9437,11 +9437,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="98"/>
-      <c r="B19" s="258"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="261"/>
-      <c r="E19" s="261"/>
-      <c r="F19" s="262"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="258"/>
+      <c r="F19" s="259"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
@@ -9452,11 +9452,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="98"/>
-      <c r="B20" s="258"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="261"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="262"/>
+      <c r="B20" s="267"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="258"/>
+      <c r="E20" s="258"/>
+      <c r="F20" s="259"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
@@ -9467,11 +9467,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="98"/>
-      <c r="B21" s="258"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="262"/>
+      <c r="B21" s="267"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="259"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="98"/>
-      <c r="B22" s="258"/>
+      <c r="B22" s="267"/>
       <c r="C22" s="103"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="98"/>
-      <c r="B23" s="258"/>
+      <c r="B23" s="267"/>
       <c r="C23" s="103"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="98"/>
-      <c r="B24" s="258"/>
+      <c r="B24" s="267"/>
       <c r="C24" s="103"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="98"/>
-      <c r="B25" s="258"/>
+      <c r="B25" s="267"/>
       <c r="C25" s="103"/>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
@@ -9542,7 +9542,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="98"/>
-      <c r="B26" s="258"/>
+      <c r="B26" s="267"/>
       <c r="C26" s="103"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="98"/>
-      <c r="B27" s="258"/>
+      <c r="B27" s="267"/>
       <c r="C27" s="103"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="98"/>
-      <c r="B28" s="258"/>
+      <c r="B28" s="267"/>
       <c r="C28" s="103"/>
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
@@ -9587,7 +9587,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="98"/>
-      <c r="B29" s="258"/>
+      <c r="B29" s="267"/>
       <c r="C29" s="103"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="98"/>
-      <c r="B30" s="258"/>
+      <c r="B30" s="267"/>
       <c r="C30" s="103"/>
       <c r="D30" s="53"/>
       <c r="E30" s="53"/>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="98"/>
-      <c r="B31" s="258"/>
+      <c r="B31" s="267"/>
       <c r="C31" s="103"/>
       <c r="D31" s="53"/>
       <c r="E31" s="53"/>
@@ -9632,11 +9632,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="98"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="260"/>
-      <c r="D32" s="261"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="262"/>
+      <c r="B32" s="267"/>
+      <c r="C32" s="257"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="259"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -9647,11 +9647,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="98"/>
-      <c r="B33" s="258"/>
-      <c r="C33" s="260"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="262"/>
+      <c r="B33" s="267"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="258"/>
+      <c r="E33" s="258"/>
+      <c r="F33" s="259"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -9662,11 +9662,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="98"/>
-      <c r="B34" s="258"/>
-      <c r="C34" s="260"/>
-      <c r="D34" s="261"/>
-      <c r="E34" s="261"/>
-      <c r="F34" s="262"/>
+      <c r="B34" s="267"/>
+      <c r="C34" s="257"/>
+      <c r="D34" s="258"/>
+      <c r="E34" s="258"/>
+      <c r="F34" s="259"/>
       <c r="G34" s="102"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
@@ -9677,11 +9677,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="98"/>
-      <c r="B35" s="258"/>
-      <c r="C35" s="260"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="262"/>
+      <c r="B35" s="267"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="259"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
@@ -9692,11 +9692,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="98"/>
-      <c r="B36" s="259"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="261"/>
-      <c r="F36" s="262"/>
+      <c r="B36" s="268"/>
+      <c r="C36" s="257"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="259"/>
       <c r="G36" s="102"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
@@ -9726,11 +9726,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -9747,6 +9742,11 @@
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9769,25 +9769,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="442e66238a47e6a383c7bc2d6eb82e4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c6b4cf86c461cb44a843f6d22037aa6" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -9945,25 +9926,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C8621D-7C2F-4B15-827B-F8E79AB7AB0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9979,4 +9961,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>